--- a/documents/tables.xlsx
+++ b/documents/tables.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yaleedu-my.sharepoint.com/personal/santiago_castiellodeobeso_yale_edu/Documents/Collaborations/Brooklyn_College/categoricalReversalLerning/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yaleedu-my.sharepoint.com/personal/santiago_castiellodeobeso_yale_edu/Documents/Collaborations/Brooklyn_College/representingCategories/categoricalReversalLerning/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="550" documentId="11_F25DC773A252ABDACC10482A911958D25BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03462C9A-4800-4387-AFBF-13360448D9CE}"/>
+  <xr:revisionPtr revIDLastSave="919" documentId="11_F25DC773A252ABDACC10482A911958D25BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A057024-316F-4433-9C74-8B26FC09ED18}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table1" sheetId="2" r:id="rId1"/>
     <sheet name="table2" sheetId="3" r:id="rId2"/>
     <sheet name="table3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="61">
   <si>
     <t>A</t>
   </si>
@@ -195,6 +196,93 @@
       <t>56 fractals similarity trials and ratings. 8 x 8 = 64, but 64 - 8 = 56, given the 8 stimuli diagonal, where it does not make sense to compare the same stimulus against itself. However, the comparison Left H and Right G was not tested due to a programming mistake.</t>
     </r>
   </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>x1 (total, or partial)</t>
+  </si>
+  <si>
+    <t>x2 (block)</t>
+  </si>
+  <si>
+    <t>x3 (interaction, x1 * x2)</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>partial</t>
+  </si>
+  <si>
+    <t>b0 + b1*1 + b2 * 1 + b3 * 1</t>
+  </si>
+  <si>
+    <t>b0 + b1*0 + b2 * 1 + b3 * 0</t>
+  </si>
+  <si>
+    <t>b0 + b1*1 + b2 * 2 + b3 * 2</t>
+  </si>
+  <si>
+    <t>b0 + b1*1 + b2 * 3 + b3 * 3</t>
+  </si>
+  <si>
+    <t>b0 + b1*0 + b2 * 2 + b3 * 0</t>
+  </si>
+  <si>
+    <t>b0 + b1*0 + b2 * 3 + b3 * 0</t>
+  </si>
+  <si>
+    <t>y_jit</t>
+  </si>
+  <si>
+    <t>b0</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>total slope</t>
+  </si>
+  <si>
+    <t>partial slope</t>
+  </si>
+  <si>
+    <t>total infleccion</t>
+  </si>
+  <si>
+    <t>partial infleccion</t>
+  </si>
+  <si>
+    <t>b0+b1</t>
+  </si>
+  <si>
+    <t>b0+b2</t>
+  </si>
+  <si>
+    <t>b0+b1+b2+b3</t>
+  </si>
+  <si>
+    <t>y_total</t>
+  </si>
+  <si>
+    <t>y_partial</t>
+  </si>
+  <si>
+    <t>data_y_total</t>
+  </si>
+  <si>
+    <t>data_y_partial</t>
+  </si>
+  <si>
+    <t>dif</t>
+  </si>
 </sst>
 </file>
 
@@ -291,28 +379,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -321,8 +388,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -339,6 +427,5365 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12513813823481854"/>
+          <c:y val="0.17925217946566419"/>
+          <c:w val="0.80275831533391384"/>
+          <c:h val="0.70863296348346139"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>x1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.1528924195515988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.146922755249699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.071539860526586</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0628937968419983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0140816990683428</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0048964314144579</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14199353180891988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6735420571011432E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15227218916933863</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3713998475657938E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5780274104990015E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11002346730766344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B37A-43BB-B224-CB7008DFAAF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="714068224"/>
+        <c:axId val="714069664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="714068224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="714069664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="714069664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="714068224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>x2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.1528924195515988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.146922755249699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.071539860526586</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0628937968419983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0140816990683428</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0048964314144579</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14199353180891988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6735420571011432E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15227218916933863</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3713998475657938E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5780274104990015E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11002346730766344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D22A-41CF-92AB-AAC37A097AA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="289758768"/>
+        <c:axId val="289759248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="289758768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="289759248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="289759248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="289758768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>x3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.1528924195515988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.146922755249699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.071539860526586</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0628937968419983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0140816990683428</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0048964314144579</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-531F-433C-8BA8-35CF99BDC5B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="950824096"/>
+        <c:axId val="950825536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="950824096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="950825536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="950825536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="950824096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11466323462614339"/>
+          <c:y val="9.0626693396783906E-2"/>
+          <c:w val="0.85396422604161615"/>
+          <c:h val="0.80629525480952557"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y_total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$R$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$4:$S$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E63B-480F-BAD7-43BF3412E31B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y_partial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$R$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$4:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E63B-480F-BAD7-43BF3412E31B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="948555968"/>
+        <c:axId val="948556448"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="948555968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="948556448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="948556448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="948555968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>sim</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>data_y_total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$W$4:$W$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$4:$X$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.80000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.90000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0000000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D52F-4CF2-B284-29F6FB71266A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>data_y_partial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$W$4:$W$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$4:$Y$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53999999999999992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.69000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.79000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.84000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.89000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0400000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D52F-4CF2-B284-29F6FB71266A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dif</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$W$4:$W$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$4:$Z$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-3.9999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.0000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.0000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.0000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.0000000000000036E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.0000000000000036E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.0000000000000036E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.0000000000000036E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.0000000000000036E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.0000000000000036E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4.0000000000000036E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4.0000000000000036E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.0000000000000036E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-4.0000000000000036E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D52F-4CF2-B284-29F6FB71266A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="969297584"/>
+        <c:axId val="969298544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="969297584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="969298544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="969298544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="969297584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>459564</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>126528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>92177</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>126317</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DBDFDD-0D24-2322-ADBC-5A484356F5AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>26123</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>55646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>307259</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>129731</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCEB69E5-3D6B-7BCC-DEE3-31E4B004EDF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>273118</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>34138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>416506</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>61452</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A217FDAA-F2F0-63F9-FDD7-9A674D444875}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>117441</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>99003</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>146802</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>169878</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E547F6C5-DA99-7234-1652-67F11E84A3C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>556477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>81935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>514142</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>27313</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E644D942-6DE5-5EAE-A524-E98E53152BE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -633,73 +6080,73 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="8"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
@@ -988,6 +6435,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:J3"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
@@ -995,11 +6447,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1009,7 +6456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C18ADE-1B7B-4944-8550-BF9EA40FD0AF}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
@@ -1036,73 +6483,73 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="8"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
@@ -1271,11 +6718,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:J3"/>
@@ -1283,6 +6725,11 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1302,312 +6749,312 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A6" s="17"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="17"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" s="17"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A9" s="17"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" s="17"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A11" s="17"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11" t="s">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A12" s="17"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1619,4 +7066,1153 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7DF6A5-C114-4E6C-AC6A-1BB045D1273D}">
+  <dimension ref="A1:Z23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="124" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="5.9375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.9375" customWidth="1"/>
+    <col min="3" max="3" width="3.64453125" customWidth="1"/>
+    <col min="4" max="4" width="16.1171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.3515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.29296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.46875" customWidth="1"/>
+    <col min="25" max="25" width="12.9375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <f ca="1">C2+RAND()*0.2</f>
+        <v>1.1528924195515988</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>D2*E2</f>
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B13" ca="1" si="0">C3+RAND()*0.2</f>
+        <v>1.146922755249699</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F13" si="1">D3*E3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.071539860526586</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <f>U4</f>
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <f>V4</f>
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <f>$T$2+$U$2*1+$V$2*R4+$W$2*R4*1</f>
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <f>$T$2+$U$2*0+$V$2*R4+$W$2*R4*0</f>
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>0.05</v>
+      </c>
+      <c r="Y4">
+        <f>X4+0.04</f>
+        <v>0.09</v>
+      </c>
+      <c r="Z4">
+        <f>X4-Y4</f>
+        <v>-3.9999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0628937968419983</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5">
+        <f>R4+1</f>
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ref="S5:S24" si="2">U5</f>
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T5:T24" si="3">V5</f>
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ref="U5:U13" si="4">$T$2+$U$2*1+$V$2*R5+$W$2*R5*1</f>
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ref="V5:V13" si="5">$T$2+$U$2*0+$V$2*R5+$W$2*R5*0</f>
+        <v>5</v>
+      </c>
+      <c r="W5">
+        <f>W4+1</f>
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <f>X4+0.05</f>
+        <v>0.1</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" ref="Y5:Y23" si="6">X5+0.04</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Z5">
+        <f>X5-Y5</f>
+        <v>-4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0140816990683428</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ref="R6:R13" si="7">R5+1</f>
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ref="W6:W23" si="8">W5+1</f>
+        <v>3</v>
+      </c>
+      <c r="X6">
+        <f t="shared" ref="X6:Y22" si="9">X5+0.05</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="6"/>
+        <v>0.19000000000000003</v>
+      </c>
+      <c r="Z6">
+        <f>X6-Y6</f>
+        <v>-4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0048964314144579</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="6"/>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="Z7">
+        <f>X7-Y7</f>
+        <v>-4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14199353180891988</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="9"/>
+        <v>0.25</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="6"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Z8">
+        <f>X8-Y8</f>
+        <v>-3.999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.6735420571011432E-2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="9"/>
+        <v>0.3</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="6"/>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="Z9">
+        <f>X9-Y9</f>
+        <v>-3.999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15227218916933863</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" t="s">
+        <v>49</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="9"/>
+        <v>0.35</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="6"/>
+        <v>0.38999999999999996</v>
+      </c>
+      <c r="Z10">
+        <f>X10-Y10</f>
+        <v>-3.999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.3713998475657938E-2</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" t="s">
+        <v>55</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="9"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="6"/>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="Z11">
+        <f>X11-Y11</f>
+        <v>-3.999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.5780274104990015E-2</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="9"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="6"/>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="Z12">
+        <f>X12-Y12</f>
+        <v>-3.999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.11002346730766344</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="9"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="6"/>
+        <v>0.53999999999999992</v>
+      </c>
+      <c r="Z13">
+        <f>X13-Y13</f>
+        <v>-3.999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="R14">
+        <f t="shared" ref="R14:R24" si="10">R13+1</f>
+        <v>11</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="U14">
+        <f t="shared" ref="U14:U24" si="11">$T$2+$U$2*1+$V$2*R14+$W$2*R14*1</f>
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <f t="shared" ref="V14:V24" si="12">$T$2+$U$2*0+$V$2*R14+$W$2*R14*0</f>
+        <v>23</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="9"/>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="6"/>
+        <v>0.59</v>
+      </c>
+      <c r="Z14">
+        <f>X14-Y14</f>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="R15">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="9"/>
+        <v>0.6</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="6"/>
+        <v>0.64</v>
+      </c>
+      <c r="Z15">
+        <f>X15-Y15</f>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="R16">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="9"/>
+        <v>0.65</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="6"/>
+        <v>0.69000000000000006</v>
+      </c>
+      <c r="Z16">
+        <f>X16-Y16</f>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="18:26" x14ac:dyDescent="0.5">
+      <c r="R17">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="12"/>
+        <v>29</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="9"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="6"/>
+        <v>0.7400000000000001</v>
+      </c>
+      <c r="Z17">
+        <f>X17-Y17</f>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="18:26" x14ac:dyDescent="0.5">
+      <c r="R18">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="12"/>
+        <v>31</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="9"/>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="6"/>
+        <v>0.79000000000000015</v>
+      </c>
+      <c r="Z18">
+        <f>X18-Y18</f>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="18:26" x14ac:dyDescent="0.5">
+      <c r="R19">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="12"/>
+        <v>33</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="9"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="6"/>
+        <v>0.84000000000000019</v>
+      </c>
+      <c r="Z19">
+        <f>X19-Y19</f>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="18:26" x14ac:dyDescent="0.5">
+      <c r="R20">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="9"/>
+        <v>0.8500000000000002</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="6"/>
+        <v>0.89000000000000024</v>
+      </c>
+      <c r="Z20">
+        <f>X20-Y20</f>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="18:26" x14ac:dyDescent="0.5">
+      <c r="R21">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="12"/>
+        <v>37</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="9"/>
+        <v>0.90000000000000024</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="6"/>
+        <v>0.94000000000000028</v>
+      </c>
+      <c r="Z21">
+        <f>X21-Y21</f>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="18:26" x14ac:dyDescent="0.5">
+      <c r="R22">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="12"/>
+        <v>39</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="9"/>
+        <v>0.95000000000000029</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="6"/>
+        <v>0.99000000000000032</v>
+      </c>
+      <c r="Z22">
+        <f>X22-Y22</f>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="18:26" x14ac:dyDescent="0.5">
+      <c r="R23">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="12"/>
+        <v>41</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="X23">
+        <f t="shared" ref="X23:Y23" si="13">X22+0.05</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="6"/>
+        <v>1.0400000000000003</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" ref="Z23" si="14">X23-Y23</f>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>